--- a/evaluaciones_promedio.xlsx
+++ b/evaluaciones_promedio.xlsx
@@ -493,12 +493,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>675dd19b499dfb073bbe4728</t>
+          <t>675bdfc9a64c8258ae69516f</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Resolución de problemas: matemáticas</t>
+          <t>Proyecto semana 2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -524,22 +524,20 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-12-14 16:46:20</t>
+          <t>2024-12-13 21:47:17</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024000021</t>
+          <t>2024000023</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Ray Andre Davalos Tapia</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>4</v>
-      </c>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluaciones_promedio.xlsx
+++ b/evaluaciones_promedio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,45 +446,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>descripcion_rubrica</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>teacher_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>teacher_name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>curso_name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>curso_semester</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>curso_año</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fecha</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>alumno_id</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>alumno_name</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>promedio_puntajes</t>
         </is>
@@ -493,51 +498,114 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>675bdfc9a64c8258ae69516f</t>
+          <t>675e86430000926a96858b18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto semana 2</t>
+          <t>hacking etico</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>criterios de hacking etico</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>67550e8e278f66cc36fe9342</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Espinoza Silverio, Edgar Franklin</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Tecnología E-Business</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gerencia y Consultoría Informática</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>10</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>2024</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2024-12-13 21:47:17</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024000023</t>
+          <t>2024-12-15 02:33:32</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Sotomayor Huaman Joseph Enrique</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>2024000001</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Ampuero Aldoradin, Diego Gabriel</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>675e86430000926a96858b18</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>hacking etico</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>criterios de hacking etico</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gerencia y Consultoría Informática</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-12-15 02:33:38</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024000002</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Aranguena Zuasnabar Edwards Frederick</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluaciones_promedio.xlsx
+++ b/evaluaciones_promedio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id_rubrica</t>
+          <t>rubrica_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>675e86430000926a96858b18</t>
+          <t>675e864c0000926a96858b19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -554,7 +554,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>675e86430000926a96858b18</t>
+          <t>675e86520000926a96858b1a</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -605,6 +605,6707 @@
       </c>
       <c r="L3" t="n">
         <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>675f05c702554fdf291f8159</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Reglas de una tienda Online</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gerencia y Consultoría Informática</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-12-15 11:37:27</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024000001</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Ampuero Aldoradin, Diego Gabriel</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>675f91822c3b3eec4fbc5b19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hacking etico</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>criterios de hacking etico</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2024-12-15 21:33:38</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>675f918a2c3b3eec4fbc5b1a</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hacking etico</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>criterios de hacking etico</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2024-12-15 21:33:46</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>675f91902c3b3eec4fbc5b1b</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hacking etico</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>criterios de hacking etico</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2024-12-15 21:33:52</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>675f91972c3b3eec4fbc5b1c</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>hacking etico</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>criterios de hacking etico</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024-12-15 21:33:59</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2024000024</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Tordoya Cardicelis Luis Fernando</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>675f919e2c3b3eec4fbc5b1d</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>hacking etico</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>criterios de hacking etico</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2024-12-15 21:34:06</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>675f91a82c3b3eec4fbc5b1e</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hacking etico</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>criterios de hacking etico</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-12-15 21:34:16</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>675f91ae2c3b3eec4fbc5b1f</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>hacking etico</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>criterios de hacking etico</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-12-15 21:34:22</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>675f91b72c3b3eec4fbc5b20</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>hacking etico</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>criterios de hacking etico</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-12-15 21:34:31</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>675f9943a6ca5fa6855a260d</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Que es el Negocio electrónico y sus Modelos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:06:43</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>675f994aa6ca5fa6855a260e</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Que es el Negocio electrónico y sus Modelos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:06:50</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>675f9952a6ca5fa6855a260f</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Que es el Negocio electrónico y sus Modelos</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:06:58</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>675f9958a6ca5fa6855a2610</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Que es el Negocio electrónico y sus Modelos</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:07:04</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2024000024</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Tordoya Cardicelis Luis Fernando</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>675f995fa6ca5fa6855a2611</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Que es el Negocio electrónico y sus Modelos</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:07:11</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>675f996aa6ca5fa6855a2612</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Que es el Negocio electrónico y sus Modelos</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:07:22</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>675f9971a6ca5fa6855a2613</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Que es el Negocio electrónico y sus Modelos</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:07:29</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>675f997ba6ca5fa6855a2614</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Que es el Negocio electrónico y sus Modelos</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:07:39</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>675f998aa6ca5fa6855a2615</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Reglas de una tienda Online</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:07:54</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>675f9996a6ca5fa6855a2616</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Reglas de una tienda Online</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:08:06</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>675f999da6ca5fa6855a2617</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Reglas de una tienda Online</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:08:13</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>675f99a3a6ca5fa6855a2618</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Reglas de una tienda Online</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:08:19</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>675f99aaa6ca5fa6855a2619</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Reglas de una tienda Online</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:08:26</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2024000024</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Tordoya Cardicelis Luis Fernando</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>675f99b3a6ca5fa6855a261a</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Reglas de una tienda Online</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:08:35</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>675f99bca6ca5fa6855a261b</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Reglas de una tienda Online</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>10</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:08:44</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>675f99c2a6ca5fa6855a261c</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Reglas de una tienda Online</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>El negocio electrónico abarca todas las actividades empresariales realizadas en línea. Sus principales modelos incluyen B2B (empresa a empresa), B2C (empresa a consumidor), C2C (consumidor a consumidor), y C2B (consumidor a empresa), cada uno enfocado en distintos tipos de interacciones comerciales.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:08:50</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>675f9a1fa6ca5fa6855a261d</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fuentes de tráfico y tracking de compras</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se refiere a los canales que generan visitantes hacia un sitio web (SEO, SEM, redes sociales, email marketing) y las herramientas utilizadas para rastrear el comportamiento de los usuarios y medir las conversiones.
+</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>10</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:10:23</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>675f9a2aa6ca5fa6855a261e</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fuentes de tráfico y tracking de compras</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se refiere a los canales que generan visitantes hacia un sitio web (SEO, SEM, redes sociales, email marketing) y las herramientas utilizadas para rastrear el comportamiento de los usuarios y medir las conversiones.
+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:10:34</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>675f9a2ea6ca5fa6855a261f</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fuentes de tráfico y tracking de compras</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se refiere a los canales que generan visitantes hacia un sitio web (SEO, SEM, redes sociales, email marketing) y las herramientas utilizadas para rastrear el comportamiento de los usuarios y medir las conversiones.
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:10:38</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>675f9a34a6ca5fa6855a2620</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fuentes de tráfico y tracking de compras</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se refiere a los canales que generan visitantes hacia un sitio web (SEO, SEM, redes sociales, email marketing) y las herramientas utilizadas para rastrear el comportamiento de los usuarios y medir las conversiones.
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>10</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:10:44</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2024000024</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Tordoya Cardicelis Luis Fernando</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>675f9a3da6ca5fa6855a2621</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fuentes de tráfico y tracking de compras</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se refiere a los canales que generan visitantes hacia un sitio web (SEO, SEM, redes sociales, email marketing) y las herramientas utilizadas para rastrear el comportamiento de los usuarios y medir las conversiones.
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>10</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:10:53</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>675f9a42a6ca5fa6855a2622</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fuentes de tráfico y tracking de compras</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se refiere a los canales que generan visitantes hacia un sitio web (SEO, SEM, redes sociales, email marketing) y las herramientas utilizadas para rastrear el comportamiento de los usuarios y medir las conversiones.
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>10</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:10:58</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>675f9a48a6ca5fa6855a2623</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fuentes de tráfico y tracking de compras</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se refiere a los canales que generan visitantes hacia un sitio web (SEO, SEM, redes sociales, email marketing) y las herramientas utilizadas para rastrear el comportamiento de los usuarios y medir las conversiones.
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:11:04</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>675f9a58a6ca5fa6855a2624</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fuentes de tráfico y tracking de compras</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se refiere a los canales que generan visitantes hacia un sitio web (SEO, SEM, redes sociales, email marketing) y las herramientas utilizadas para rastrear el comportamiento de los usuarios y medir las conversiones.
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>10</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:11:20</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>675f9a65a6ca5fa6855a2625</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Actividades que realiza un SEO</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incluyen la optimización de sitios web para mejorar su visibilidad en motores de búsqueda, investigación de palabras clave, creación de contenido relevante, análisis de backlinks, y monitoreo de métricas de rendimiento.
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:11:33</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>675f9a6ba6ca5fa6855a2626</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Actividades que realiza un SEO</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incluyen la optimización de sitios web para mejorar su visibilidad en motores de búsqueda, investigación de palabras clave, creación de contenido relevante, análisis de backlinks, y monitoreo de métricas de rendimiento.
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>10</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:11:39</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>675f9a71a6ca5fa6855a2627</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Actividades que realiza un SEO</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incluyen la optimización de sitios web para mejorar su visibilidad en motores de búsqueda, investigación de palabras clave, creación de contenido relevante, análisis de backlinks, y monitoreo de métricas de rendimiento.
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>10</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:11:45</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>675f9a76a6ca5fa6855a2628</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Actividades que realiza un SEO</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incluyen la optimización de sitios web para mejorar su visibilidad en motores de búsqueda, investigación de palabras clave, creación de contenido relevante, análisis de backlinks, y monitoreo de métricas de rendimiento.
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:11:50</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>675f9a7ba6ca5fa6855a2629</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Actividades que realiza un SEO</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incluyen la optimización de sitios web para mejorar su visibilidad en motores de búsqueda, investigación de palabras clave, creación de contenido relevante, análisis de backlinks, y monitoreo de métricas de rendimiento.
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:11:55</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2024000024</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Tordoya Cardicelis Luis Fernando</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>675f9a82a6ca5fa6855a262a</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Actividades que realiza un SEO</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incluyen la optimización de sitios web para mejorar su visibilidad en motores de búsqueda, investigación de palabras clave, creación de contenido relevante, análisis de backlinks, y monitoreo de métricas de rendimiento.
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:12:02</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>675f9a8aa6ca5fa6855a262b</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Actividades que realiza un SEO</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incluyen la optimización de sitios web para mejorar su visibilidad en motores de búsqueda, investigación de palabras clave, creación de contenido relevante, análisis de backlinks, y monitoreo de métricas de rendimiento.
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:12:10</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>675f9a91a6ca5fa6855a262c</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Actividades que realiza un SEO</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incluyen la optimización de sitios web para mejorar su visibilidad en motores de búsqueda, investigación de palabras clave, creación de contenido relevante, análisis de backlinks, y monitoreo de métricas de rendimiento.
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:12:17</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>675f9ab3a6ca5fa6855a262d</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Estructura de un Negocio electrónico</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Está formada por elementos como la plataforma digital, gestión de inventarios, logística, sistemas de pago, atención al cliente, y estrategias de marketing, todos integrados para operar de manera eficiente.
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:12:51</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>675f9abea6ca5fa6855a262e</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Estructura de un Negocio electrónico</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Está formada por elementos como la plataforma digital, gestión de inventarios, logística, sistemas de pago, atención al cliente, y estrategias de marketing, todos integrados para operar de manera eficiente.
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:13:02</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>675f9ac3a6ca5fa6855a262f</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Estructura de un Negocio electrónico</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Está formada por elementos como la plataforma digital, gestión de inventarios, logística, sistemas de pago, atención al cliente, y estrategias de marketing, todos integrados para operar de manera eficiente.
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:13:07</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>675f9ac9a6ca5fa6855a2630</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Estructura de un Negocio electrónico</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Está formada por elementos como la plataforma digital, gestión de inventarios, logística, sistemas de pago, atención al cliente, y estrategias de marketing, todos integrados para operar de manera eficiente.
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:13:13</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>675f9adaa6ca5fa6855a2631</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>La importancia de la desintermediación</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es la eliminación de intermediarios en la cadena de distribución, lo que permite a las empresas vender directamente al cliente, reduciendo costos y mejorando la comunicación.
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:13:30</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>675f9ae2a6ca5fa6855a2632</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>La importancia de la desintermediación</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es la eliminación de intermediarios en la cadena de distribución, lo que permite a las empresas vender directamente al cliente, reduciendo costos y mejorando la comunicación.
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>10</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:13:38</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>675f9aeaa6ca5fa6855a2633</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>La importancia de la desintermediación</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es la eliminación de intermediarios en la cadena de distribución, lo que permite a las empresas vender directamente al cliente, reduciendo costos y mejorando la comunicación.
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>10</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:13:46</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>675f9aeea6ca5fa6855a2634</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>La importancia de la desintermediación</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es la eliminación de intermediarios en la cadena de distribución, lo que permite a las empresas vender directamente al cliente, reduciendo costos y mejorando la comunicación.
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>10</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:13:50</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>675f9af5a6ca5fa6855a2635</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>La importancia de la desintermediación</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es la eliminación de intermediarios en la cadena de distribución, lo que permite a las empresas vender directamente al cliente, reduciendo costos y mejorando la comunicación.
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>10</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:13:57</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2024000024</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Tordoya Cardicelis Luis Fernando</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>675f9afaa6ca5fa6855a2636</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>La importancia de la desintermediación</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es la eliminación de intermediarios en la cadena de distribución, lo que permite a las empresas vender directamente al cliente, reduciendo costos y mejorando la comunicación.
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>10</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:14:02</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>675f9b01a6ca5fa6855a2637</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>La importancia de la desintermediación</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es la eliminación de intermediarios en la cadena de distribución, lo que permite a las empresas vender directamente al cliente, reduciendo costos y mejorando la comunicación.
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>10</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:14:09</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>675f9b05a6ca5fa6855a2638</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>La importancia de la desintermediación</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es la eliminación de intermediarios en la cadena de distribución, lo que permite a las empresas vender directamente al cliente, reduciendo costos y mejorando la comunicación.
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>10</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:14:13</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>675f9b0ca6ca5fa6855a2639</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>La importancia de la desintermediación</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es la eliminación de intermediarios en la cadena de distribución, lo que permite a las empresas vender directamente al cliente, reduciendo costos y mejorando la comunicación.
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>10</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:14:20</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>675f9b1ca6ca5fa6855a263a</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mobile commerce</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El comercio móvil se centra en la compra y venta de productos o servicios a través de dispositivos móviles, ofreciendo comodidad y acceso instantáneo a los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>10</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:14:36</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>675f9b21a6ca5fa6855a263b</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mobile commerce</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El comercio móvil se centra en la compra y venta de productos o servicios a través de dispositivos móviles, ofreciendo comodidad y acceso instantáneo a los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>10</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:14:41</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>675f9b26a6ca5fa6855a263c</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mobile commerce</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El comercio móvil se centra en la compra y venta de productos o servicios a través de dispositivos móviles, ofreciendo comodidad y acceso instantáneo a los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>10</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:14:46</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>675f9b2ca6ca5fa6855a263d</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mobile commerce</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El comercio móvil se centra en la compra y venta de productos o servicios a través de dispositivos móviles, ofreciendo comodidad y acceso instantáneo a los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>10</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:14:52</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2024000024</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Tordoya Cardicelis Luis Fernando</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>675f9b30a6ca5fa6855a263e</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mobile commerce</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El comercio móvil se centra en la compra y venta de productos o servicios a través de dispositivos móviles, ofreciendo comodidad y acceso instantáneo a los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>10</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:14:56</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>675f9b37a6ca5fa6855a263f</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Mobile commerce</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El comercio móvil se centra en la compra y venta de productos o servicios a través de dispositivos móviles, ofreciendo comodidad y acceso instantáneo a los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>10</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:15:03</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>675f9b3da6ca5fa6855a2640</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Mobile commerce</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El comercio móvil se centra en la compra y venta de productos o servicios a través de dispositivos móviles, ofreciendo comodidad y acceso instantáneo a los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>10</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:15:09</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>675f9b43a6ca5fa6855a2641</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Mobile commerce</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El comercio móvil se centra en la compra y venta de productos o servicios a través de dispositivos móviles, ofreciendo comodidad y acceso instantáneo a los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>10</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:15:15</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>675f9b67a6ca5fa6855a2642</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Estructura de un comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se compone de la plataforma de e-commerce, catálogo de productos, métodos de pago, gestión de inventario, logística, y atención al cliente, diseñada para ofrecer una experiencia completa al usuario.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>10</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:15:51</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>675f9bc0a6ca5fa6855a2643</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Estructura de un comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se compone de la plataforma de e-commerce, catálogo de productos, métodos de pago, gestión de inventario, logística, y atención al cliente, diseñada para ofrecer una experiencia completa al usuario.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>10</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:17:20</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>675f9bc5a6ca5fa6855a2644</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Estructura de un comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se compone de la plataforma de e-commerce, catálogo de productos, métodos de pago, gestión de inventario, logística, y atención al cliente, diseñada para ofrecer una experiencia completa al usuario.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>10</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:17:25</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>675f9bc9a6ca5fa6855a2645</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Estructura de un comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se compone de la plataforma de e-commerce, catálogo de productos, métodos de pago, gestión de inventario, logística, y atención al cliente, diseñada para ofrecer una experiencia completa al usuario.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>10</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:17:29</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>675f9bd0a6ca5fa6855a2646</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Estructura de un comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se compone de la plataforma de e-commerce, catálogo de productos, métodos de pago, gestión de inventario, logística, y atención al cliente, diseñada para ofrecer una experiencia completa al usuario.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>10</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:17:36</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2024000024</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Tordoya Cardicelis Luis Fernando</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>675f9bd6a6ca5fa6855a2647</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Estructura de un comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se compone de la plataforma de e-commerce, catálogo de productos, métodos de pago, gestión de inventario, logística, y atención al cliente, diseñada para ofrecer una experiencia completa al usuario.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>10</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:17:42</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>675f9bdba6ca5fa6855a2648</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Estructura de un comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se compone de la plataforma de e-commerce, catálogo de productos, métodos de pago, gestión de inventario, logística, y atención al cliente, diseñada para ofrecer una experiencia completa al usuario.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>10</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:17:47</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>675f9be0a6ca5fa6855a2649</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Estructura de un comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se compone de la plataforma de e-commerce, catálogo de productos, métodos de pago, gestión de inventario, logística, y atención al cliente, diseñada para ofrecer una experiencia completa al usuario.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>10</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:17:52</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>675f9be6a6ca5fa6855a264a</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Estructura de un comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se compone de la plataforma de e-commerce, catálogo de productos, métodos de pago, gestión de inventario, logística, y atención al cliente, diseñada para ofrecer una experiencia completa al usuario.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>10</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:17:58</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>675f9bf8a6ca5fa6855a264b</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Visitas Conversión</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las visitas son el número de personas que acceden al sitio web, mientras que la conversión mide cuántas de ellas realizan una acción deseada, como comprar un producto o registrarse.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>10</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:18:16</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>675f9bfea6ca5fa6855a264c</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Visitas Conversión</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las visitas son el número de personas que acceden al sitio web, mientras que la conversión mide cuántas de ellas realizan una acción deseada, como comprar un producto o registrarse.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>10</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:18:22</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>675f9c07a6ca5fa6855a264d</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Visitas Conversión</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las visitas son el número de personas que acceden al sitio web, mientras que la conversión mide cuántas de ellas realizan una acción deseada, como comprar un producto o registrarse.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>10</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:18:31</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>675f9c0ca6ca5fa6855a264e</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Visitas Conversión</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las visitas son el número de personas que acceden al sitio web, mientras que la conversión mide cuántas de ellas realizan una acción deseada, como comprar un producto o registrarse.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>10</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:18:36</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>675f9c1ea6ca5fa6855a264f</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ideas Claves en un plan de marketing</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspectos esenciales como la segmentación de mercado, propuesta de valor, análisis de la competencia, estrategias de comunicación, y definición de objetivos medibles para alcanzar las metas comerciales.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>10</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:18:54</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>675f9c23a6ca5fa6855a2650</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Ideas Claves en un plan de marketing</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspectos esenciales como la segmentación de mercado, propuesta de valor, análisis de la competencia, estrategias de comunicación, y definición de objetivos medibles para alcanzar las metas comerciales.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>10</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:18:59</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>675f9c29a6ca5fa6855a2651</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Ideas Claves en un plan de marketing</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspectos esenciales como la segmentación de mercado, propuesta de valor, análisis de la competencia, estrategias de comunicación, y definición de objetivos medibles para alcanzar las metas comerciales.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>10</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:19:05</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>675f9c38a6ca5fa6855a2652</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Público Objetivo: Hallazgo palabras Clave, Tendencias Consejos para el diseño</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proceso para identificar las características del público ideal, seleccionar palabras clave relevantes, analizar tendencias de consumo, y crear un diseño atractivo y funcional para captar la atención de los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>10</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:19:20</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>675f9c3ca6ca5fa6855a2653</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Público Objetivo: Hallazgo palabras Clave, Tendencias Consejos para el diseño</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proceso para identificar las características del público ideal, seleccionar palabras clave relevantes, analizar tendencias de consumo, y crear un diseño atractivo y funcional para captar la atención de los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>10</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:19:24</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>675f9c43a6ca5fa6855a2654</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Público Objetivo: Hallazgo palabras Clave, Tendencias Consejos para el diseño</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proceso para identificar las características del público ideal, seleccionar palabras clave relevantes, analizar tendencias de consumo, y crear un diseño atractivo y funcional para captar la atención de los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>10</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:19:31</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>675f9c48a6ca5fa6855a2655</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Público Objetivo: Hallazgo palabras Clave, Tendencias Consejos para el diseño</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proceso para identificar las características del público ideal, seleccionar palabras clave relevantes, analizar tendencias de consumo, y crear un diseño atractivo y funcional para captar la atención de los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>10</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:19:36</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>675f9c4fa6ca5fa6855a2656</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Público Objetivo: Hallazgo palabras Clave, Tendencias Consejos para el diseño</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proceso para identificar las características del público ideal, seleccionar palabras clave relevantes, analizar tendencias de consumo, y crear un diseño atractivo y funcional para captar la atención de los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>10</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:19:43</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2024000024</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Tordoya Cardicelis Luis Fernando</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>675f9c54a6ca5fa6855a2657</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Público Objetivo: Hallazgo palabras Clave, Tendencias Consejos para el diseño</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proceso para identificar las características del público ideal, seleccionar palabras clave relevantes, analizar tendencias de consumo, y crear un diseño atractivo y funcional para captar la atención de los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>10</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:19:48</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>675f9c5aa6ca5fa6855a2658</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Público Objetivo: Hallazgo palabras Clave, Tendencias Consejos para el diseño</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proceso para identificar las características del público ideal, seleccionar palabras clave relevantes, analizar tendencias de consumo, y crear un diseño atractivo y funcional para captar la atención de los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>10</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:19:54</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>675f9c62a6ca5fa6855a2659</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Público Objetivo: Hallazgo palabras Clave, Tendencias Consejos para el diseño</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proceso para identificar las características del público ideal, seleccionar palabras clave relevantes, analizar tendencias de consumo, y crear un diseño atractivo y funcional para captar la atención de los usuarios.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>10</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:20:02</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>675f9c89a6ca5fa6855a265a</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Gestión de pagos en el comercio electronico</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Procesos para manejar transacciones seguras en línea, incluyendo métodos de pago diversificados, integraciones con pasarelas de pago, y protección contra fraudes.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>10</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:20:41</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>675f9c96a6ca5fa6855a265b</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Qué se debe medir en un comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métricas clave como la tasa de conversión, tráfico web, abandono del carrito de compras, y satisfacción del cliente, que permiten evaluar el desempeño y tomar decisiones basadas en datos.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>10</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:20:54</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>675f9c9ba6ca5fa6855a265c</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Qué se debe medir en un comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métricas clave como la tasa de conversión, tráfico web, abandono del carrito de compras, y satisfacción del cliente, que permiten evaluar el desempeño y tomar decisiones basadas en datos.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>10</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:20:59</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>675f9caca6ca5fa6855a265d</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>La importancia de la desintermediación</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es la eliminación de intermediarios en la cadena de distribución, lo que permite a las empresas vender directamente al cliente, reduciendo costos y mejorando la comunicación.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>10</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:21:16</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>675f9cbea6ca5fa6855a265e</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Gestión de pagos en el comercio electronico</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Procesos para manejar transacciones seguras en línea, incluyendo métodos de pago diversificados, integraciones con pasarelas de pago, y protección contra fraudes.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>10</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:21:34</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>675f9cc8a6ca5fa6855a265f</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Gestión de pagos en el comercio electronico</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Procesos para manejar transacciones seguras en línea, incluyendo métodos de pago diversificados, integraciones con pasarelas de pago, y protección contra fraudes.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>10</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:21:44</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>675f9ccda6ca5fa6855a2660</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Gestión de pagos en el comercio electronico</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Procesos para manejar transacciones seguras en línea, incluyendo métodos de pago diversificados, integraciones con pasarelas de pago, y protección contra fraudes.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>10</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:21:49</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>675f9cd3a6ca5fa6855a2661</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Gestión de pagos en el comercio electronico</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Procesos para manejar transacciones seguras en línea, incluyendo métodos de pago diversificados, integraciones con pasarelas de pago, y protección contra fraudes.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>10</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:21:55</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>675f9cd9a6ca5fa6855a2662</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Gestión de pagos en el comercio electronico</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Procesos para manejar transacciones seguras en línea, incluyendo métodos de pago diversificados, integraciones con pasarelas de pago, y protección contra fraudes.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>10</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:22:01</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2024000024</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Tordoya Cardicelis Luis Fernando</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>675f9ce2a6ca5fa6855a2663</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Gestión de pagos en el comercio electronico</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Procesos para manejar transacciones seguras en línea, incluyendo métodos de pago diversificados, integraciones con pasarelas de pago, y protección contra fraudes.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>10</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:22:10</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>675f9ce9a6ca5fa6855a2664</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Gestión de pagos en el comercio electronico</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Procesos para manejar transacciones seguras en línea, incluyendo métodos de pago diversificados, integraciones con pasarelas de pago, y protección contra fraudes.
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>10</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:22:17</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>675f9cefa6ca5fa6855a2665</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Gestión de pagos en el comercio electronico</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Procesos para manejar transacciones seguras en línea, incluyendo métodos de pago diversificados, integraciones con pasarelas de pago, y protección contra fraudes.
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>10</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:22:23</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>675f9d14a6ca5fa6855a2666</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Medio de pago PayU</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es una plataforma que facilita pagos en línea seguros y eficientes, ofreciendo múltiples métodos de pago, soporte para distintas monedas, y herramientas antifraude.
+</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>10</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:23:00</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>675f9d1ba6ca5fa6855a2667</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Medio de pago PayU</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es una plataforma que facilita pagos en línea seguros y eficientes, ofreciendo múltiples métodos de pago, soporte para distintas monedas, y herramientas antifraude.
+</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>10</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:23:07</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>675f9d24a6ca5fa6855a2668</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Medios convencionales,Transferencia, reembolso y tarjeta de crédito</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métodos tradicionales de pago en el comercio electrónico que incluyen transferencias bancarias, devoluciones de dinero, y pagos con tarjeta de crédito.
+</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>10</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:23:16</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>675f9d29a6ca5fa6855a2669</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Medios convencionales,Transferencia, reembolso y tarjeta de crédito</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métodos tradicionales de pago en el comercio electrónico que incluyen transferencias bancarias, devoluciones de dinero, y pagos con tarjeta de crédito.
+</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>10</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:23:21</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>675f9d2ea6ca5fa6855a266a</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Medios convencionales,Transferencia, reembolso y tarjeta de crédito</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métodos tradicionales de pago en el comercio electrónico que incluyen transferencias bancarias, devoluciones de dinero, y pagos con tarjeta de crédito.
+</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>10</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:23:26</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>675f9d37a6ca5fa6855a266b</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Control de Fraude en los negocios electrónicos</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uso de herramientas como autenticación de dos factores, análisis de comportamiento y sistemas antifraude para proteger las transacciones y la información de los clientes.
+</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>10</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:23:35</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>675f9d3ca6ca5fa6855a266c</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Control de Fraude en los negocios electrónicos</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uso de herramientas como autenticación de dos factores, análisis de comportamiento y sistemas antifraude para proteger las transacciones y la información de los clientes.
+</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>10</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:23:40</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>675f9d47a6ca5fa6855a266d</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Indicadores de éxito en el Negocio electrónico</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son métricas que evalúan el desempeño de un negocio en línea, como la tasa de conversión, retención de clientes, ticket promedio, tráfico web, y retorno de inversión (ROI).
+</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>10</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:23:51</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>675f9d4ca6ca5fa6855a266e</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Indicadores de éxito en el Negocio electrónico</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son métricas que evalúan el desempeño de un negocio en línea, como la tasa de conversión, retención de clientes, ticket promedio, tráfico web, y retorno de inversión (ROI).
+</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>10</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:23:56</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2024000027</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Yenque Calero Jerry Aldair</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>675f9d59a6ca5fa6855a266f</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Indicadores de éxito en el Negocio electrónico</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son métricas que evalúan el desempeño de un negocio en línea, como la tasa de conversión, retención de clientes, ticket promedio, tráfico web, y retorno de inversión (ROI).
+</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>10</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:24:09</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>675f9d7aa6ca5fa6855a2670</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Nuevos modelos de ventas</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incluyen estrategias innovadoras como suscripciones, dropshipping, marketplaces, y ventas en redes sociales, diseñadas para adaptarse a las preferencias modernas de los consumidores.
+</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>10</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:24:42</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2024000028</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Angles Payano Neil Titow</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>675f9d7fa6ca5fa6855a2671</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Nuevos modelos de ventas</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incluyen estrategias innovadoras como suscripciones, dropshipping, marketplaces, y ventas en redes sociales, diseñadas para adaptarse a las preferencias modernas de los consumidores.
+</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>10</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:24:47</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>675f9d87a6ca5fa6855a2672</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Técnicas de la planeación</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métodos como análisis FODA, diagramas de Gantt, y benchmarking, que ayudan a estructurar estrategias, establecer prioridades, y asegurar la ejecución eficiente de un proyecto.
+</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>10</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:24:55</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>675f9d8da6ca5fa6855a2673</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Técnicas de la planeación</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métodos como análisis FODA, diagramas de Gantt, y benchmarking, que ayudan a estructurar estrategias, establecer prioridades, y asegurar la ejecución eficiente de un proyecto.
+</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>10</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:25:01</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2024000022</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Sánchez Hermitaño Elias Smit</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>675f9d93a6ca5fa6855a2674</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Técnicas de la planeación</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métodos como análisis FODA, diagramas de Gantt, y benchmarking, que ayudan a estructurar estrategias, establecer prioridades, y asegurar la ejecución eficiente de un proyecto.
+</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>10</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:25:07</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2024000023</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Sotomayor Huaman Joseph Enrique</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>675f9dc0a6ca5fa6855a2675</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Mitos de pago y fraude online</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ideas erróneas como que los pagos en línea no son seguros o que los fraudes son inevitables, y las estrategias para desmentirlos mediante el uso de tecnologías avanzadas y buenas prácticas.
+</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>10</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:25:52</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>675f9dc5a6ca5fa6855a2676</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Mitos de pago y fraude online</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ideas erróneas como que los pagos en línea no son seguros o que los fraudes son inevitables, y las estrategias para desmentirlos mediante el uso de tecnologías avanzadas y buenas prácticas.
+</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>10</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:25:57</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2024000026</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Velasco Ortega Jean David</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>675f9dd0a6ca5fa6855a2677</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Mitos de pago y fraude online</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ideas erróneas como que los pagos en línea no son seguros o que los fraudes son inevitables, y las estrategias para desmentirlos mediante el uso de tecnologías avanzadas y buenas prácticas.
+</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>10</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:26:08</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2024000024</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Tordoya Cardicelis Luis Fernando</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>675f9ddca6ca5fa6855a2678</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Marco legal en el comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Regulaciones que garantizan la seguridad y derechos de los consumidores, como la protección de datos, cumplimiento fiscal, y las normativas de comercio digital.
+</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>10</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:26:20</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2024000025</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Valverde Rumiche Carlos Enrique</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>675f9de0a6ca5fa6855a2679</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Marco legal en el comercio electrónico</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Regulaciones que garantizan la seguridad y derechos de los consumidores, como la protección de datos, cumplimiento fiscal, y las normativas de comercio digital.
+</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Tecnología E-Business</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>10</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:26:24</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2024000021</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Ray Andre Davalos Tapia</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/evaluaciones_promedio.xlsx
+++ b/evaluaciones_promedio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7308,6 +7308,398 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>675fb30b920cf0d47cc369df</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>pentesting</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>tecnicas de pentesting penetracion para hacking etico</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Seguridad y Auditoría Informática</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>10</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2024-12-15 23:56:43</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2024000011</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Gionella Edith Huamani Huamanchahua</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>675fb318920cf0d47cc369e0</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>pentesting</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>tecnicas de pentesting penetracion para hacking etico</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Seguridad y Auditoría Informática</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>10</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2024-12-15 23:56:56</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2024000012</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Guzmán Castaños, Alvaro</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>675fb362920cf0d47cc369e2</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>auditoria base de datos</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>auditoria a los accesos en una organizacion</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Seguridad y Auditoría Informática</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>10</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2024-12-15 23:58:10</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2024000011</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Gionella Edith Huamani Huamanchahua</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>675fb395920cf0d47cc369e3</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>auditoria base de datos</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>auditoria a los accesos en una organizacion</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Seguridad y Auditoría Informática</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>10</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2024-12-15 23:59:01</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2024000012</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Guzmán Castaños, Alvaro</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>675fb3a1920cf0d47cc369e4</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>auditoria base de datos</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>auditoria a los accesos en una organizacion</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Seguridad y Auditoría Informática</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>10</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2024-12-15 23:59:13</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2024000013</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Hinostroza Turin Cesar Zidani</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>675fb3a9920cf0d47cc369e5</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>auditoria base de datos</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>auditoria a los accesos en una organizacion</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Seguridad y Auditoría Informática</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>10</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2024-12-15 23:59:21</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2024000014</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Huaman Navalles Jhonatan Omar Anghelo</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>675fb3b0920cf0d47cc369e6</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>auditoria base de datos</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>auditoria a los accesos en una organizacion</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>67550e8e278f66cc36fe9342</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Espinoza Silverio, Edgar Franklin</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Seguridad y Auditoría Informática</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>10</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2024-12-15 23:59:28</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2024000015</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Manco Cambillo, Crishian Manuel</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
